--- a/Docs/Documentación de tablas SQL.xlsx
+++ b/Docs/Documentación de tablas SQL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Code\University\NuevaIter\Iteracion2-Sistrans\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\Universidad\Cuarto Semestre\Iter3Sistrans\Iteracion2-Sistrans\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="220">
   <si>
     <t>Nombre</t>
   </si>
@@ -326,24 +326,12 @@
     <t>Tabla que modela equivalencias entre productos para los restaurantes de RotondAndes.</t>
   </si>
   <si>
-    <t>Restaurante_nombre, producto1_nombre, producto2_nombre</t>
-  </si>
-  <si>
     <t>Restaurante_nombre</t>
   </si>
   <si>
     <t>Nombre del restaurante a modelar las equivalencias</t>
   </si>
   <si>
-    <t>Producto1_nombre</t>
-  </si>
-  <si>
-    <t>Nombre del primer producto de una equivalencia</t>
-  </si>
-  <si>
-    <t>Producto2_nombre</t>
-  </si>
-  <si>
     <t>Tabla que modela un ingrediente de un restaurante</t>
   </si>
   <si>
@@ -392,18 +380,6 @@
     <t>Tabla que modela equivalencias entre ingredientes para los restaurantes de RotondAndes.</t>
   </si>
   <si>
-    <t>Ingrediente1_nombre</t>
-  </si>
-  <si>
-    <t>Ingrediente2_nombre</t>
-  </si>
-  <si>
-    <t>Nombre del primer ingrediente de una equivalencia</t>
-  </si>
-  <si>
-    <t>Referencia en ingrediente</t>
-  </si>
-  <si>
     <t>number(8)</t>
   </si>
   <si>
@@ -425,9 +401,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Restaurante_nombre, Ingrediente1_nombre, Ingrediente2_nombre</t>
-  </si>
-  <si>
     <t>Tabla que guarda la información de los menús ofrecidos en RotondAndes.</t>
   </si>
   <si>
@@ -690,12 +663,30 @@
   </si>
   <si>
     <t>Cantidad de productos registrados en la orden</t>
+  </si>
+  <si>
+    <t>Equivalencia</t>
+  </si>
+  <si>
+    <t>Número del conjunto de equivalencia al que pertenece el producto</t>
+  </si>
+  <si>
+    <t>Nombre del producto de una equivalencia</t>
+  </si>
+  <si>
+    <t>Nombre del ingrediente de una equivalencia</t>
+  </si>
+  <si>
+    <t>Número del conjunto de equivalencia al que pertenece el ingrediente</t>
+  </si>
+  <si>
+    <t>Restaurante_nombre, producto_nombre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1132,24 +1123,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1291,6 +1264,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1391,23 +1382,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1443,23 +1417,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1638,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,1871 +1608,1871 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
     </row>
     <row r="2" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="16" t="s">
+      <c r="C21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="55" t="s">
+      <c r="F22" s="49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>132</v>
+      <c r="D24" s="12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="42" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="29" t="s">
+      <c r="B26" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="42" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
+      <c r="A29" s="43"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
     </row>
     <row r="31" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="16" t="s">
+      <c r="C33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="61"/>
     </row>
     <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="A41" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="57"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="58"/>
+      <c r="D42" s="59"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+      <c r="B44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" s="17" t="s">
+      <c r="A45" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="18" t="s">
+      <c r="C45" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>97</v>
+    <row r="46" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="61"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="10" t="s">
+      <c r="A50" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="56"/>
+      <c r="D50" s="57"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="58"/>
+      <c r="D51" s="59"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" s="15" t="s">
+      <c r="C53" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" s="17" t="s">
+      <c r="B56" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="47" t="s">
+      <c r="D56" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="9"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="61"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="10" t="s">
+      <c r="A60" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="56"/>
+      <c r="D60" s="57"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="58"/>
+      <c r="D61" s="59"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="11"/>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="12" t="s">
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="9"/>
+      <c r="B67" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="60"/>
+      <c r="D67" s="61"/>
     </row>
     <row r="68" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="11"/>
+      <c r="A68" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="56"/>
+      <c r="D68" s="57"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="13"/>
+      <c r="B69" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="58"/>
+      <c r="D69" s="59"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" s="16" t="s">
+      <c r="C70" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>126</v>
+      <c r="A72" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="9"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="61"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="11"/>
+      <c r="A77" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="56"/>
+      <c r="D77" s="57"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="59"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="16" t="s">
+      <c r="C79" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="26" t="s">
+      <c r="A80" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C80" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" s="18" t="s">
+      <c r="C80" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="26" t="s">
+      <c r="A81" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D81" s="18" t="s">
+      <c r="B81" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D81" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="B82" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D82" s="18" t="s">
+      <c r="B82" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83" s="42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="23" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B83" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D83" s="48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B84" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C84" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="D84" s="48" t="s">
+      <c r="D84" s="42" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C85" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="D85" s="48" t="s">
+      <c r="D85" s="42" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B86" s="19" t="s">
+      <c r="A86" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C86" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D86" s="20" t="s">
+      <c r="C86" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="9"/>
+      <c r="C89" s="60"/>
+      <c r="D89" s="61"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="11"/>
+      <c r="A90" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" s="56"/>
+      <c r="D90" s="57"/>
     </row>
     <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="13"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="59"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" s="16" t="s">
+      <c r="C92" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C93" s="17" t="s">
+      <c r="B93" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D96" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B96" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="23" t="s">
+      <c r="A99" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="9"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="61"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="11"/>
+      <c r="A100" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" s="56"/>
+      <c r="D100" s="57"/>
     </row>
     <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C101" s="12"/>
-      <c r="D101" s="13"/>
+      <c r="B101" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101" s="58"/>
+      <c r="D101" s="59"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102" s="16" t="s">
+      <c r="C102" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B103" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D103" s="20" t="s">
-        <v>157</v>
+      <c r="A103" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="23" t="s">
+      <c r="A106" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="9"/>
+      <c r="C106" s="60"/>
+      <c r="D106" s="61"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="11"/>
+      <c r="A107" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" s="56"/>
+      <c r="D107" s="57"/>
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="25" t="s">
+      <c r="A108" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="12"/>
-      <c r="D108" s="13"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="59"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C109" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" s="16" t="s">
+      <c r="C109" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="26" t="s">
+      <c r="A110" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D110" s="18" t="s">
-        <v>146</v>
+      <c r="B110" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D111" s="18" t="s">
-        <v>164</v>
+      <c r="A111" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B112" s="19" t="s">
+      <c r="A112" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C112" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D112" s="20" t="s">
-        <v>166</v>
+      <c r="C112" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="23" t="s">
+      <c r="A115" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="9"/>
+      <c r="C115" s="60"/>
+      <c r="D115" s="61"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B116" s="10" t="s">
+      <c r="A116" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116" s="56"/>
+      <c r="D116" s="57"/>
+    </row>
+    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C117" s="58"/>
+      <c r="D117" s="59"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B119" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C116" s="10"/>
-      <c r="D116" s="11"/>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C117" s="12"/>
-      <c r="D117" s="13"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D118" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B119" s="17" t="s">
+      <c r="C119" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B122" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C122" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C119" s="17" t="s">
+      <c r="D122" s="14" t="s">
         <v>168</v>
-      </c>
-      <c r="D119" s="18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B120" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D120" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="B121" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D121" s="18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="B122" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D122" s="20" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="23" t="s">
+      <c r="A125" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C125" s="8"/>
-      <c r="D125" s="9"/>
+      <c r="B125" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="C125" s="60"/>
+      <c r="D125" s="61"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="11"/>
+      <c r="A126" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C126" s="56"/>
+      <c r="D126" s="57"/>
     </row>
     <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="25" t="s">
+      <c r="A127" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C127" s="12"/>
-      <c r="D127" s="13"/>
+      <c r="B127" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C127" s="58"/>
+      <c r="D127" s="59"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C128" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D128" s="16" t="s">
+      <c r="C128" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B129" s="17" t="s">
+      <c r="A129" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B129" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C129" s="17" t="s">
+      <c r="C129" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D129" s="18" t="s">
-        <v>180</v>
+      <c r="D129" s="12" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="27" t="s">
+      <c r="A130" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B130" s="19" t="s">
+      <c r="B130" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C130" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D130" s="20" t="s">
-        <v>120</v>
+      <c r="C130" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="23" t="s">
+      <c r="A133" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="9"/>
+      <c r="B133" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C133" s="60"/>
+      <c r="D133" s="61"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C134" s="10"/>
-      <c r="D134" s="11"/>
+      <c r="A134" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C134" s="56"/>
+      <c r="D134" s="57"/>
     </row>
     <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="25" t="s">
+      <c r="A135" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C135" s="12"/>
-      <c r="D135" s="13"/>
+      <c r="B135" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="C135" s="58"/>
+      <c r="D135" s="59"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C136" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136" s="16" t="s">
+      <c r="C136" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B137" s="17" t="s">
+      <c r="A137" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B137" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C137" s="17" t="s">
+      <c r="C137" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D137" s="18" t="s">
-        <v>180</v>
+      <c r="D137" s="12" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B138" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D138" s="20" t="s">
-        <v>119</v>
+      <c r="A138" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="23" t="s">
+      <c r="A141" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C141" s="8"/>
-      <c r="D141" s="9"/>
+      <c r="B141" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="C141" s="60"/>
+      <c r="D141" s="61"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C142" s="10"/>
-      <c r="D142" s="11"/>
+      <c r="A142" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="C142" s="56"/>
+      <c r="D142" s="57"/>
     </row>
     <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="25" t="s">
+      <c r="A143" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B143" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C143" s="12"/>
-      <c r="D143" s="13"/>
+      <c r="B143" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C143" s="58"/>
+      <c r="D143" s="59"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B144" s="15" t="s">
+      <c r="B144" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C144" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D144" s="16" t="s">
+      <c r="C144" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="26" t="s">
+      <c r="A145" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B145" s="17" t="s">
+      <c r="B145" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C145" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D145" s="18" t="s">
-        <v>120</v>
+      <c r="C145" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="B146" s="19" t="s">
+      <c r="A146" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B146" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C146" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D146" s="20" t="s">
-        <v>189</v>
+      <c r="C146" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="23" t="s">
+      <c r="A149" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B149" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C149" s="8"/>
-      <c r="D149" s="9"/>
+      <c r="B149" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C149" s="60"/>
+      <c r="D149" s="61"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C150" s="10"/>
-      <c r="D150" s="11"/>
+      <c r="A150" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="C150" s="56"/>
+      <c r="D150" s="57"/>
     </row>
     <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="25" t="s">
+      <c r="A151" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B151" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C151" s="12"/>
-      <c r="D151" s="13"/>
+      <c r="B151" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="C151" s="58"/>
+      <c r="D151" s="59"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="14" t="s">
+      <c r="A152" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B152" s="15" t="s">
+      <c r="B152" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C152" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D152" s="16" t="s">
+      <c r="C152" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="26" t="s">
+      <c r="A153" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="17" t="s">
+      <c r="B153" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C153" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D153" s="18" t="s">
-        <v>113</v>
+      <c r="C153" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="27" t="s">
+      <c r="A154" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B154" s="19" t="s">
+      <c r="B154" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C154" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D154" s="20" t="s">
-        <v>120</v>
+      <c r="C154" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D154" s="14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="23" t="s">
+      <c r="A157" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B157" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C157" s="8"/>
-      <c r="D157" s="9"/>
+      <c r="B157" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="C157" s="60"/>
+      <c r="D157" s="61"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C158" s="10"/>
-      <c r="D158" s="11"/>
+      <c r="A158" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C158" s="56"/>
+      <c r="D158" s="57"/>
     </row>
     <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="25" t="s">
+      <c r="A159" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B159" s="12" t="s">
+      <c r="B159" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C159" s="12"/>
-      <c r="D159" s="13"/>
+      <c r="C159" s="58"/>
+      <c r="D159" s="59"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B160" s="15" t="s">
+      <c r="B160" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C160" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D160" s="16" t="s">
+      <c r="C160" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="26" t="s">
+      <c r="A161" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B161" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D161" s="18" t="s">
-        <v>113</v>
+      <c r="B161" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="B162" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D162" s="18" t="s">
-        <v>199</v>
+      <c r="A162" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="B163" s="19" t="s">
+      <c r="A163" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B163" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C163" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D163" s="20" t="s">
-        <v>180</v>
+      <c r="C163" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D163" s="14" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="23" t="s">
+      <c r="A166" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C166" s="60"/>
+      <c r="D166" s="61"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="C167" s="56"/>
+      <c r="D167" s="57"/>
+    </row>
+    <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B168" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C168" s="58"/>
+      <c r="D168" s="59"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A171" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C172" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C166" s="8"/>
-      <c r="D166" s="9"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B167" s="10" t="s">
+      <c r="D172" s="12"/>
+    </row>
+    <row r="173" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B173" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C173" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C167" s="10"/>
-      <c r="D167" s="11"/>
-    </row>
-    <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B168" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C168" s="12"/>
-      <c r="D168" s="13"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B169" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D169" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B170" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D170" s="18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A171" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="B171" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C171" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="D171" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="B172" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C172" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D172" s="18"/>
-    </row>
-    <row r="173" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="B173" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="C173" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="D173" s="20" t="s">
-        <v>177</v>
+      <c r="D173" s="14" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="23" t="s">
+      <c r="A176" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="C176" s="60"/>
+      <c r="D176" s="61"/>
+    </row>
+    <row r="177" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C177" s="56"/>
+      <c r="D177" s="57"/>
+    </row>
+    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="C178" s="58"/>
+      <c r="D178" s="59"/>
+    </row>
+    <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D179" s="52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B180" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C180" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="D180" s="55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D181" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C182" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C176" s="8"/>
-      <c r="D176" s="9"/>
-    </row>
-    <row r="177" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C177" s="10"/>
-      <c r="D177" s="11"/>
-    </row>
-    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B178" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C178" s="12"/>
-      <c r="D178" s="13"/>
-    </row>
-    <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B179" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C179" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D179" s="58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="B180" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="C180" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="D180" s="61" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B181" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="D181" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="B182" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C182" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="D182" s="20" t="s">
+      <c r="D182" s="14" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B166:D166"/>
     <mergeCell ref="B167:D167"/>
     <mergeCell ref="B168:D168"/>
     <mergeCell ref="B176:D176"/>
     <mergeCell ref="B177:D177"/>
     <mergeCell ref="B178:D178"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3542,29 +3499,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="36" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -3572,19 +3529,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="37" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -3592,64 +3549,64 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="31" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="35" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3669,60 +3626,60 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="27" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="35" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3740,141 +3697,141 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="31" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="29" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="43"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">

--- a/Docs/Documentación de tablas SQL.xlsx
+++ b/Docs/Documentación de tablas SQL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\Universidad\Cuarto Semestre\Iter3Sistrans\Iteracion2-Sistrans\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Code\University\Iteración3\Iteracion2-Sistrans\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="225">
   <si>
     <t>Nombre</t>
   </si>
@@ -623,9 +623,6 @@
     <t>Valor binario (booleano) que representa si ya se entregó (1) o no la orden (0)</t>
   </si>
   <si>
-    <t>Es 1 o 0</t>
-  </si>
-  <si>
     <t>TIempoR</t>
   </si>
   <si>
@@ -681,13 +678,31 @@
   </si>
   <si>
     <t>Restaurante_nombre, producto_nombre</t>
+  </si>
+  <si>
+    <t>Menu_Checkout</t>
+  </si>
+  <si>
+    <t>Tabla que modela la relación muchos a muchos entre los registros órdenes de compras y los menús en RotondAndes.</t>
+  </si>
+  <si>
+    <t>mayor a cero, NN</t>
+  </si>
+  <si>
+    <t>Nombre del restaurante al que pertenece el producto de la compra</t>
+  </si>
+  <si>
+    <t>Es 1 o 0, NN</t>
+  </si>
+  <si>
+    <t>longitud mayor a 5, NN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,6 +720,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1112,7 +1135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1268,6 +1291,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1277,12 +1309,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1382,6 +1418,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1417,6 +1470,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1593,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:D42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,37 +1677,37 @@
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-    </row>
-    <row r="2" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="57"/>
+      <c r="D1" s="58"/>
+    </row>
+    <row r="2" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1651,7 +1721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
@@ -1665,7 +1735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
@@ -1676,10 +1746,11 @@
         <v>62</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="F6" s="66"/>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>56</v>
       </c>
@@ -1690,10 +1761,10 @@
         <v>64</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>57</v>
       </c>
@@ -1707,38 +1778,38 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
@@ -1752,7 +1823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>69</v>
       </c>
@@ -1771,31 +1842,31 @@
       <c r="A18" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -1911,31 +1982,31 @@
       <c r="A30" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
     </row>
     <row r="31" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="57"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="60"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -2012,31 +2083,31 @@
       <c r="A40" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="61"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="58"/>
     </row>
     <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="57"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="60"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="59"/>
+      <c r="B42" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="61"/>
+      <c r="D42" s="62"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
@@ -2074,7 +2145,7 @@
         <v>95</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>97</v>
@@ -2082,13 +2153,13 @@
     </row>
     <row r="46" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>153</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>83</v>
@@ -2099,31 +2170,31 @@
       <c r="A49" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="61"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="58"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="57"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="60"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="59"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="62"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
@@ -2200,31 +2271,31 @@
       <c r="A59" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="60" t="s">
+      <c r="B59" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="61"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="58"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="56" t="s">
+      <c r="B60" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="57"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="60"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="59"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="62"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
@@ -2273,31 +2344,31 @@
       <c r="A67" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="58"/>
     </row>
     <row r="68" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="56"/>
-      <c r="D68" s="57"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="60"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="58" t="s">
+      <c r="B69" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="C69" s="58"/>
-      <c r="D69" s="59"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="62"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
@@ -2335,7 +2406,7 @@
         <v>107</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>97</v>
@@ -2343,13 +2414,13 @@
     </row>
     <row r="73" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>153</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>83</v>
@@ -2360,31 +2431,31 @@
       <c r="A76" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="60" t="s">
+      <c r="B76" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="60"/>
-      <c r="D76" s="61"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="58"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="56" t="s">
+      <c r="B77" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="C77" s="56"/>
-      <c r="D77" s="57"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="60"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="59"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="62"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
@@ -2503,31 +2574,31 @@
       <c r="A89" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="60" t="s">
+      <c r="B89" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="61"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="58"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="56" t="s">
+      <c r="B90" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="C90" s="56"/>
-      <c r="D90" s="57"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="60"/>
     </row>
     <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="58" t="s">
+      <c r="B91" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="58"/>
-      <c r="D91" s="59"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="62"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
@@ -2604,31 +2675,31 @@
       <c r="A99" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="60" t="s">
+      <c r="B99" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="60"/>
-      <c r="D99" s="61"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="58"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="56" t="s">
+      <c r="B100" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="C100" s="56"/>
-      <c r="D100" s="57"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="60"/>
     </row>
     <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="C101" s="58"/>
-      <c r="D101" s="59"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="62"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
@@ -2663,31 +2734,31 @@
       <c r="A106" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="60" t="s">
+      <c r="B106" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C106" s="60"/>
-      <c r="D106" s="61"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="58"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="56" t="s">
+      <c r="B107" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="C107" s="56"/>
-      <c r="D107" s="57"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="60"/>
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="58" t="s">
+      <c r="B108" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="58"/>
-      <c r="D108" s="59"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="62"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
@@ -2750,31 +2821,31 @@
       <c r="A115" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="60" t="s">
+      <c r="B115" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="60"/>
-      <c r="D115" s="61"/>
+      <c r="C115" s="57"/>
+      <c r="D115" s="58"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B116" s="56" t="s">
+      <c r="B116" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="C116" s="56"/>
-      <c r="D116" s="57"/>
+      <c r="C116" s="59"/>
+      <c r="D116" s="60"/>
     </row>
     <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="58" t="s">
+      <c r="B117" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C117" s="58"/>
-      <c r="D117" s="59"/>
+      <c r="C117" s="61"/>
+      <c r="D117" s="62"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
@@ -2851,31 +2922,31 @@
       <c r="A125" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B125" s="60" t="s">
+      <c r="B125" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="C125" s="60"/>
-      <c r="D125" s="61"/>
+      <c r="C125" s="57"/>
+      <c r="D125" s="58"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="56" t="s">
+      <c r="B126" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="C126" s="56"/>
-      <c r="D126" s="57"/>
+      <c r="C126" s="59"/>
+      <c r="D126" s="60"/>
     </row>
     <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="58" t="s">
+      <c r="B127" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="C127" s="58"/>
-      <c r="D127" s="59"/>
+      <c r="C127" s="61"/>
+      <c r="D127" s="62"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
@@ -2924,31 +2995,31 @@
       <c r="A133" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="60" t="s">
+      <c r="B133" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="C133" s="60"/>
-      <c r="D133" s="61"/>
+      <c r="C133" s="57"/>
+      <c r="D133" s="58"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="56" t="s">
+      <c r="B134" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="C134" s="56"/>
-      <c r="D134" s="57"/>
+      <c r="C134" s="59"/>
+      <c r="D134" s="60"/>
     </row>
     <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="58" t="s">
+      <c r="B135" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="C135" s="58"/>
-      <c r="D135" s="59"/>
+      <c r="C135" s="61"/>
+      <c r="D135" s="62"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
@@ -2997,31 +3068,31 @@
       <c r="A141" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="60" t="s">
+      <c r="B141" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="C141" s="60"/>
-      <c r="D141" s="61"/>
+      <c r="C141" s="57"/>
+      <c r="D141" s="58"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="56" t="s">
+      <c r="B142" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="C142" s="56"/>
-      <c r="D142" s="57"/>
+      <c r="C142" s="59"/>
+      <c r="D142" s="60"/>
     </row>
     <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B143" s="58" t="s">
+      <c r="B143" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="C143" s="58"/>
-      <c r="D143" s="59"/>
+      <c r="C143" s="61"/>
+      <c r="D143" s="62"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
@@ -3070,31 +3141,31 @@
       <c r="A149" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B149" s="60" t="s">
+      <c r="B149" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="C149" s="60"/>
-      <c r="D149" s="61"/>
+      <c r="C149" s="57"/>
+      <c r="D149" s="58"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B150" s="56" t="s">
+      <c r="B150" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="C150" s="56"/>
-      <c r="D150" s="57"/>
+      <c r="C150" s="59"/>
+      <c r="D150" s="60"/>
     </row>
     <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B151" s="58" t="s">
+      <c r="B151" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="C151" s="58"/>
-      <c r="D151" s="59"/>
+      <c r="C151" s="61"/>
+      <c r="D151" s="62"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
@@ -3143,31 +3214,31 @@
       <c r="A157" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B157" s="60" t="s">
+      <c r="B157" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="C157" s="60"/>
-      <c r="D157" s="61"/>
+      <c r="C157" s="57"/>
+      <c r="D157" s="58"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B158" s="56" t="s">
+      <c r="B158" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="C158" s="56"/>
-      <c r="D158" s="57"/>
+      <c r="C158" s="59"/>
+      <c r="D158" s="60"/>
     </row>
     <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B159" s="58" t="s">
+      <c r="B159" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C159" s="58"/>
-      <c r="D159" s="59"/>
+      <c r="C159" s="61"/>
+      <c r="D159" s="62"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
@@ -3230,31 +3301,31 @@
       <c r="A166" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="60" t="s">
+      <c r="B166" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="C166" s="60"/>
-      <c r="D166" s="61"/>
+      <c r="C166" s="57"/>
+      <c r="D166" s="58"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B167" s="56" t="s">
+      <c r="B167" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="C167" s="56"/>
-      <c r="D167" s="57"/>
+      <c r="C167" s="59"/>
+      <c r="D167" s="60"/>
     </row>
     <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B168" s="58" t="s">
+      <c r="B168" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C168" s="58"/>
-      <c r="D168" s="59"/>
+      <c r="C168" s="61"/>
+      <c r="D168" s="62"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
@@ -3295,18 +3366,18 @@
         <v>199</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B172" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D172" s="12"/>
     </row>
@@ -3318,7 +3389,7 @@
         <v>107</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D173" s="14" t="s">
         <v>168</v>
@@ -3329,31 +3400,31 @@
       <c r="A176" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B176" s="60" t="s">
+      <c r="B176" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="C176" s="57"/>
+      <c r="D176" s="58"/>
+    </row>
+    <row r="177" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="C176" s="60"/>
-      <c r="D176" s="61"/>
-    </row>
-    <row r="177" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B177" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="C177" s="56"/>
-      <c r="D177" s="57"/>
+      <c r="C177" s="59"/>
+      <c r="D177" s="60"/>
     </row>
     <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B178" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="C178" s="58"/>
-      <c r="D178" s="59"/>
+      <c r="B178" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="C178" s="61"/>
+      <c r="D178" s="62"/>
     </row>
     <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="50" t="s">
@@ -3371,7 +3442,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B180" s="54" t="s">
         <v>195</v>
@@ -3380,7 +3451,7 @@
         <v>196</v>
       </c>
       <c r="D180" s="55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3388,91 +3459,195 @@
         <v>94</v>
       </c>
       <c r="B181" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C181" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="D181" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B182" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C182" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="D182" s="65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="D181" s="12" t="s">
+      <c r="B183" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D183" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C186" s="57"/>
+      <c r="D186" s="58"/>
+    </row>
+    <row r="187" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="C187" s="59"/>
+      <c r="D187" s="60"/>
+    </row>
+    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B188" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="C188" s="61"/>
+      <c r="D188" s="62"/>
+    </row>
+    <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B189" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D189" s="52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="B190" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C190" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="D190" s="55" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B191" s="11" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="21" t="s">
+      <c r="C191" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B192" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B182" s="13" t="s">
+      <c r="C192" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C182" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D182" s="14" t="s">
-        <v>83</v>
+      <c r="D192" s="14" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="63">
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="B178:D178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/Documentación de tablas SQL.xlsx
+++ b/Docs/Documentación de tablas SQL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Code\University\Iteración3\Iteracion2-Sistrans\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\Universidad\Cuarto Semestre\Iter3Sistrans\Iteracion2-Sistrans\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="220">
   <si>
     <t>Nombre</t>
   </si>
@@ -623,6 +623,9 @@
     <t>Valor binario (booleano) que representa si ya se entregó (1) o no la orden (0)</t>
   </si>
   <si>
+    <t>Es 1 o 0</t>
+  </si>
+  <si>
     <t>TIempoR</t>
   </si>
   <si>
@@ -678,31 +681,13 @@
   </si>
   <si>
     <t>Restaurante_nombre, producto_nombre</t>
-  </si>
-  <si>
-    <t>Menu_Checkout</t>
-  </si>
-  <si>
-    <t>Tabla que modela la relación muchos a muchos entre los registros órdenes de compras y los menús en RotondAndes.</t>
-  </si>
-  <si>
-    <t>mayor a cero, NN</t>
-  </si>
-  <si>
-    <t>Nombre del restaurante al que pertenece el producto de la compra</t>
-  </si>
-  <si>
-    <t>Es 1 o 0, NN</t>
-  </si>
-  <si>
-    <t>longitud mayor a 5, NN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,14 +705,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1135,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,34 +1268,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1418,23 +1382,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1470,23 +1417,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1663,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,37 +1607,37 @@
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
-    </row>
-    <row r="2" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+    </row>
+    <row r="2" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1721,7 +1651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
@@ -1735,7 +1665,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
@@ -1746,11 +1676,10 @@
         <v>62</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="F6" s="66"/>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>56</v>
       </c>
@@ -1761,10 +1690,10 @@
         <v>64</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>57</v>
       </c>
@@ -1778,38 +1707,38 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
@@ -1823,7 +1752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>69</v>
       </c>
@@ -1842,31 +1771,31 @@
       <c r="A18" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -1982,31 +1911,31 @@
       <c r="A30" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
     </row>
     <row r="31" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="59"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -2083,31 +2012,31 @@
       <c r="A40" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="58"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="61"/>
     </row>
     <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="60"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="57"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="61"/>
-      <c r="D42" s="62"/>
+      <c r="B42" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="58"/>
+      <c r="D42" s="59"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
@@ -2145,7 +2074,7 @@
         <v>95</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>97</v>
@@ -2153,13 +2082,13 @@
     </row>
     <row r="46" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>153</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>83</v>
@@ -2170,31 +2099,31 @@
       <c r="A49" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="58"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="61"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="60"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="57"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="61"/>
-      <c r="D51" s="62"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="59"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
@@ -2271,31 +2200,31 @@
       <c r="A59" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="58"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="61"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="59"/>
-      <c r="D60" s="60"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="57"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="61"/>
-      <c r="D61" s="62"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="59"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
@@ -2344,31 +2273,31 @@
       <c r="A67" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="57" t="s">
+      <c r="B67" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="57"/>
-      <c r="D67" s="58"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="61"/>
     </row>
     <row r="68" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="60"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="57"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="61" t="s">
+      <c r="B69" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="C69" s="61"/>
-      <c r="D69" s="62"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="59"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
@@ -2406,7 +2335,7 @@
         <v>107</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>97</v>
@@ -2414,13 +2343,13 @@
     </row>
     <row r="73" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>153</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>83</v>
@@ -2431,31 +2360,31 @@
       <c r="A76" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="57" t="s">
+      <c r="B76" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="57"/>
-      <c r="D76" s="58"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="61"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="59" t="s">
+      <c r="B77" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="C77" s="59"/>
-      <c r="D77" s="60"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="57"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="61" t="s">
+      <c r="B78" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="61"/>
-      <c r="D78" s="62"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="59"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
@@ -2574,31 +2503,31 @@
       <c r="A89" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="57" t="s">
+      <c r="B89" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C89" s="57"/>
-      <c r="D89" s="58"/>
+      <c r="C89" s="60"/>
+      <c r="D89" s="61"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="59" t="s">
+      <c r="B90" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="C90" s="59"/>
-      <c r="D90" s="60"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="57"/>
     </row>
     <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="61" t="s">
+      <c r="B91" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="61"/>
-      <c r="D91" s="62"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="59"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
@@ -2675,31 +2604,31 @@
       <c r="A99" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="57" t="s">
+      <c r="B99" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="57"/>
-      <c r="D99" s="58"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="61"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="59" t="s">
+      <c r="B100" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="C100" s="59"/>
-      <c r="D100" s="60"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="57"/>
     </row>
     <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="61" t="s">
+      <c r="B101" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="C101" s="61"/>
-      <c r="D101" s="62"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="59"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
@@ -2734,31 +2663,31 @@
       <c r="A106" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="57" t="s">
+      <c r="B106" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C106" s="57"/>
-      <c r="D106" s="58"/>
+      <c r="C106" s="60"/>
+      <c r="D106" s="61"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="59" t="s">
+      <c r="B107" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="C107" s="59"/>
-      <c r="D107" s="60"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="57"/>
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="61" t="s">
+      <c r="B108" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="61"/>
-      <c r="D108" s="62"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="59"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
@@ -2821,31 +2750,31 @@
       <c r="A115" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="57" t="s">
+      <c r="B115" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="57"/>
-      <c r="D115" s="58"/>
+      <c r="C115" s="60"/>
+      <c r="D115" s="61"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B116" s="59" t="s">
+      <c r="B116" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="C116" s="59"/>
-      <c r="D116" s="60"/>
+      <c r="C116" s="56"/>
+      <c r="D116" s="57"/>
     </row>
     <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="61" t="s">
+      <c r="B117" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C117" s="61"/>
-      <c r="D117" s="62"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="59"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
@@ -2922,31 +2851,31 @@
       <c r="A125" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B125" s="57" t="s">
+      <c r="B125" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="C125" s="57"/>
-      <c r="D125" s="58"/>
+      <c r="C125" s="60"/>
+      <c r="D125" s="61"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="59" t="s">
+      <c r="B126" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="C126" s="59"/>
-      <c r="D126" s="60"/>
+      <c r="C126" s="56"/>
+      <c r="D126" s="57"/>
     </row>
     <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="61" t="s">
+      <c r="B127" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="C127" s="61"/>
-      <c r="D127" s="62"/>
+      <c r="C127" s="58"/>
+      <c r="D127" s="59"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
@@ -2995,31 +2924,31 @@
       <c r="A133" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="57" t="s">
+      <c r="B133" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="C133" s="57"/>
-      <c r="D133" s="58"/>
+      <c r="C133" s="60"/>
+      <c r="D133" s="61"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="59" t="s">
+      <c r="B134" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="C134" s="59"/>
-      <c r="D134" s="60"/>
+      <c r="C134" s="56"/>
+      <c r="D134" s="57"/>
     </row>
     <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="61" t="s">
+      <c r="B135" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="C135" s="61"/>
-      <c r="D135" s="62"/>
+      <c r="C135" s="58"/>
+      <c r="D135" s="59"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
@@ -3068,31 +2997,31 @@
       <c r="A141" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="57" t="s">
+      <c r="B141" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="C141" s="57"/>
-      <c r="D141" s="58"/>
+      <c r="C141" s="60"/>
+      <c r="D141" s="61"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="59" t="s">
+      <c r="B142" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="C142" s="59"/>
-      <c r="D142" s="60"/>
+      <c r="C142" s="56"/>
+      <c r="D142" s="57"/>
     </row>
     <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B143" s="61" t="s">
+      <c r="B143" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="C143" s="61"/>
-      <c r="D143" s="62"/>
+      <c r="C143" s="58"/>
+      <c r="D143" s="59"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
@@ -3141,31 +3070,31 @@
       <c r="A149" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B149" s="57" t="s">
+      <c r="B149" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="C149" s="57"/>
-      <c r="D149" s="58"/>
+      <c r="C149" s="60"/>
+      <c r="D149" s="61"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B150" s="59" t="s">
+      <c r="B150" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="C150" s="59"/>
-      <c r="D150" s="60"/>
+      <c r="C150" s="56"/>
+      <c r="D150" s="57"/>
     </row>
     <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B151" s="61" t="s">
+      <c r="B151" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="C151" s="61"/>
-      <c r="D151" s="62"/>
+      <c r="C151" s="58"/>
+      <c r="D151" s="59"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
@@ -3214,31 +3143,31 @@
       <c r="A157" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B157" s="57" t="s">
+      <c r="B157" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="C157" s="57"/>
-      <c r="D157" s="58"/>
+      <c r="C157" s="60"/>
+      <c r="D157" s="61"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B158" s="59" t="s">
+      <c r="B158" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="C158" s="59"/>
-      <c r="D158" s="60"/>
+      <c r="C158" s="56"/>
+      <c r="D158" s="57"/>
     </row>
     <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B159" s="61" t="s">
+      <c r="B159" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C159" s="61"/>
-      <c r="D159" s="62"/>
+      <c r="C159" s="58"/>
+      <c r="D159" s="59"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
@@ -3301,31 +3230,31 @@
       <c r="A166" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="57" t="s">
+      <c r="B166" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="C166" s="57"/>
-      <c r="D166" s="58"/>
+      <c r="C166" s="60"/>
+      <c r="D166" s="61"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B167" s="59" t="s">
+      <c r="B167" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="C167" s="59"/>
-      <c r="D167" s="60"/>
+      <c r="C167" s="56"/>
+      <c r="D167" s="57"/>
     </row>
     <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B168" s="61" t="s">
+      <c r="B168" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C168" s="61"/>
-      <c r="D168" s="62"/>
+      <c r="C168" s="58"/>
+      <c r="D168" s="59"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
@@ -3366,18 +3295,18 @@
         <v>199</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B172" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D172" s="12"/>
     </row>
@@ -3389,7 +3318,7 @@
         <v>107</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D173" s="14" t="s">
         <v>168</v>
@@ -3400,31 +3329,31 @@
       <c r="A176" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B176" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="C176" s="57"/>
-      <c r="D176" s="58"/>
-    </row>
-    <row r="177" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="C176" s="60"/>
+      <c r="D176" s="61"/>
+    </row>
+    <row r="177" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B177" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="C177" s="59"/>
-      <c r="D177" s="60"/>
+      <c r="B177" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="C177" s="56"/>
+      <c r="D177" s="57"/>
     </row>
     <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B178" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="C178" s="61"/>
-      <c r="D178" s="62"/>
+      <c r="B178" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="C178" s="58"/>
+      <c r="D178" s="59"/>
     </row>
     <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="50" t="s">
@@ -3442,7 +3371,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B180" s="54" t="s">
         <v>195</v>
@@ -3451,7 +3380,7 @@
         <v>196</v>
       </c>
       <c r="D180" s="55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3459,195 +3388,91 @@
         <v>94</v>
       </c>
       <c r="B181" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D181" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C181" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D181" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A182" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="B182" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C182" s="56" t="s">
-        <v>222</v>
-      </c>
-      <c r="D182" s="65" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="B183" s="13" t="s">
+    </row>
+    <row r="182" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="B182" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="D183" s="14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B186" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="C186" s="57"/>
-      <c r="D186" s="58"/>
-    </row>
-    <row r="187" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B187" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="C187" s="59"/>
-      <c r="D187" s="60"/>
-    </row>
-    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B188" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="C188" s="61"/>
-      <c r="D188" s="62"/>
-    </row>
-    <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B189" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C189" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="D189" s="52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="B190" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="C190" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="D190" s="55" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B191" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C191" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D191" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="B192" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C192" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D192" s="14" t="s">
-        <v>221</v>
+      <c r="C182" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D182" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="B186:D186"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B188:D188"/>
+  <mergeCells count="60">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B166:D166"/>
     <mergeCell ref="B167:D167"/>
     <mergeCell ref="B168:D168"/>
     <mergeCell ref="B176:D176"/>
     <mergeCell ref="B177:D177"/>
     <mergeCell ref="B178:D178"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/Documentación de tablas SQL.xlsx
+++ b/Docs/Documentación de tablas SQL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\Universidad\Cuarto Semestre\Iter3Sistrans\Iteracion2-Sistrans\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santisgo\Desktop\SISTRANS\Iteracion3-Sistrans\Iteracion2-Sistrans\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9735" windowHeight="5550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9735" windowHeight="5550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentación" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="225">
   <si>
     <t>Nombre</t>
   </si>
@@ -681,12 +681,27 @@
   </si>
   <si>
     <t>Restaurante_nombre, producto_nombre</t>
+  </si>
+  <si>
+    <t>CliRegs_usuaruio_cliente</t>
+  </si>
+  <si>
+    <t>Nombre del Cliente registrado que la hizo.</t>
+  </si>
+  <si>
+    <t>Nombre del restaurante anexo a los registros de compra</t>
+  </si>
+  <si>
+    <t>Nombre_Menu</t>
+  </si>
+  <si>
+    <t>Nombre del menu anexo a los registros de compra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -724,7 +739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1108,11 +1123,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1265,6 +1291,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1277,10 +1309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1382,6 +1411,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1417,6 +1463,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1592,11 +1655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:D42"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,31 +1674,31 @@
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1712,31 +1775,31 @@
       <c r="A11" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -1771,31 +1834,31 @@
       <c r="A18" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -1911,31 +1974,31 @@
       <c r="A30" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="59"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="61"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -2012,31 +2075,31 @@
       <c r="A40" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="61"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="57"/>
     </row>
     <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="57"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="59"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="59"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="61"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
@@ -2099,31 +2162,31 @@
       <c r="A49" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="61"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="57"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="57"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="59"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="59"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="61"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
@@ -2200,31 +2263,31 @@
       <c r="A59" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="60" t="s">
+      <c r="B59" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="61"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="57"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="56" t="s">
+      <c r="B60" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="57"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="59"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="59"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="61"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
@@ -2273,31 +2336,31 @@
       <c r="A67" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="57"/>
     </row>
     <row r="68" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="56"/>
-      <c r="D68" s="57"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="59"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="58" t="s">
+      <c r="B69" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="C69" s="58"/>
-      <c r="D69" s="59"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="61"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
@@ -2360,31 +2423,31 @@
       <c r="A76" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="60" t="s">
+      <c r="B76" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="60"/>
-      <c r="D76" s="61"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="57"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="56" t="s">
+      <c r="B77" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="C77" s="56"/>
-      <c r="D77" s="57"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="59"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="59"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="61"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
@@ -2503,31 +2566,31 @@
       <c r="A89" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="60" t="s">
+      <c r="B89" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="61"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="57"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="56" t="s">
+      <c r="B90" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="C90" s="56"/>
-      <c r="D90" s="57"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="59"/>
     </row>
     <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B91" s="58" t="s">
+      <c r="B91" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="58"/>
-      <c r="D91" s="59"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="61"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
@@ -2604,31 +2667,31 @@
       <c r="A99" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="60" t="s">
+      <c r="B99" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="60"/>
-      <c r="D99" s="61"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="57"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="56" t="s">
+      <c r="B100" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="C100" s="56"/>
-      <c r="D100" s="57"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="59"/>
     </row>
     <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="C101" s="58"/>
-      <c r="D101" s="59"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="61"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
@@ -2663,31 +2726,31 @@
       <c r="A106" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="60" t="s">
+      <c r="B106" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C106" s="60"/>
-      <c r="D106" s="61"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="57"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="56" t="s">
+      <c r="B107" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="C107" s="56"/>
-      <c r="D107" s="57"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="59"/>
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="58" t="s">
+      <c r="B108" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C108" s="58"/>
-      <c r="D108" s="59"/>
+      <c r="C108" s="60"/>
+      <c r="D108" s="61"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
@@ -2750,31 +2813,31 @@
       <c r="A115" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="60" t="s">
+      <c r="B115" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="60"/>
-      <c r="D115" s="61"/>
+      <c r="C115" s="56"/>
+      <c r="D115" s="57"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B116" s="56" t="s">
+      <c r="B116" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="C116" s="56"/>
-      <c r="D116" s="57"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="59"/>
     </row>
     <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="58" t="s">
+      <c r="B117" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C117" s="58"/>
-      <c r="D117" s="59"/>
+      <c r="C117" s="60"/>
+      <c r="D117" s="61"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
@@ -2851,31 +2914,31 @@
       <c r="A125" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B125" s="60" t="s">
+      <c r="B125" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="C125" s="60"/>
-      <c r="D125" s="61"/>
+      <c r="C125" s="56"/>
+      <c r="D125" s="57"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="56" t="s">
+      <c r="B126" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="C126" s="56"/>
-      <c r="D126" s="57"/>
+      <c r="C126" s="58"/>
+      <c r="D126" s="59"/>
     </row>
     <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B127" s="58" t="s">
+      <c r="B127" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="C127" s="58"/>
-      <c r="D127" s="59"/>
+      <c r="C127" s="60"/>
+      <c r="D127" s="61"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
@@ -2924,31 +2987,31 @@
       <c r="A133" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B133" s="60" t="s">
+      <c r="B133" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="C133" s="60"/>
-      <c r="D133" s="61"/>
+      <c r="C133" s="56"/>
+      <c r="D133" s="57"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="56" t="s">
+      <c r="B134" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="C134" s="56"/>
-      <c r="D134" s="57"/>
+      <c r="C134" s="58"/>
+      <c r="D134" s="59"/>
     </row>
     <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B135" s="58" t="s">
+      <c r="B135" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="C135" s="58"/>
-      <c r="D135" s="59"/>
+      <c r="C135" s="60"/>
+      <c r="D135" s="61"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
@@ -2997,31 +3060,31 @@
       <c r="A141" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="60" t="s">
+      <c r="B141" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="C141" s="60"/>
-      <c r="D141" s="61"/>
+      <c r="C141" s="56"/>
+      <c r="D141" s="57"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="56" t="s">
+      <c r="B142" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="C142" s="56"/>
-      <c r="D142" s="57"/>
+      <c r="C142" s="58"/>
+      <c r="D142" s="59"/>
     </row>
     <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B143" s="58" t="s">
+      <c r="B143" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="C143" s="58"/>
-      <c r="D143" s="59"/>
+      <c r="C143" s="60"/>
+      <c r="D143" s="61"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
@@ -3070,31 +3133,31 @@
       <c r="A149" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B149" s="60" t="s">
+      <c r="B149" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="C149" s="60"/>
-      <c r="D149" s="61"/>
+      <c r="C149" s="56"/>
+      <c r="D149" s="57"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B150" s="56" t="s">
+      <c r="B150" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="C150" s="56"/>
-      <c r="D150" s="57"/>
+      <c r="C150" s="58"/>
+      <c r="D150" s="59"/>
     </row>
     <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B151" s="58" t="s">
+      <c r="B151" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="C151" s="58"/>
-      <c r="D151" s="59"/>
+      <c r="C151" s="60"/>
+      <c r="D151" s="61"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
@@ -3143,31 +3206,31 @@
       <c r="A157" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B157" s="60" t="s">
+      <c r="B157" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="C157" s="60"/>
-      <c r="D157" s="61"/>
+      <c r="C157" s="56"/>
+      <c r="D157" s="57"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B158" s="56" t="s">
+      <c r="B158" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="C158" s="56"/>
-      <c r="D158" s="57"/>
+      <c r="C158" s="58"/>
+      <c r="D158" s="59"/>
     </row>
     <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B159" s="58" t="s">
+      <c r="B159" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C159" s="58"/>
-      <c r="D159" s="59"/>
+      <c r="C159" s="60"/>
+      <c r="D159" s="61"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
@@ -3230,31 +3293,31 @@
       <c r="A166" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="60" t="s">
+      <c r="B166" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="C166" s="60"/>
-      <c r="D166" s="61"/>
+      <c r="C166" s="56"/>
+      <c r="D166" s="57"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B167" s="56" t="s">
+      <c r="B167" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="C167" s="56"/>
-      <c r="D167" s="57"/>
+      <c r="C167" s="58"/>
+      <c r="D167" s="59"/>
     </row>
     <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B168" s="58" t="s">
+      <c r="B168" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C168" s="58"/>
-      <c r="D168" s="59"/>
+      <c r="C168" s="60"/>
+      <c r="D168" s="61"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
@@ -3311,10 +3374,10 @@
       <c r="D172" s="12"/>
     </row>
     <row r="173" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="21" t="s">
+      <c r="A173" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="B173" s="48" t="s">
+      <c r="B173" s="11" t="s">
         <v>107</v>
       </c>
       <c r="C173" s="13" t="s">
@@ -3324,155 +3387,200 @@
         <v>168</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="17" t="s">
+    <row r="174" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="62"/>
+    </row>
+    <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B176" s="60" t="s">
+      <c r="B177" s="56" t="s">
         <v>204</v>
-      </c>
-      <c r="C176" s="60"/>
-      <c r="D176" s="61"/>
-    </row>
-    <row r="177" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B177" s="56" t="s">
-        <v>205</v>
       </c>
       <c r="C177" s="56"/>
       <c r="D177" s="57"/>
     </row>
-    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="19" t="s">
-        <v>2</v>
+    <row r="178" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="18" t="s">
+        <v>1</v>
       </c>
       <c r="B178" s="58" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C178" s="58"/>
       <c r="D178" s="59"/>
     </row>
     <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="50" t="s">
+      <c r="A179" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="C179" s="60"/>
+      <c r="D179" s="61"/>
+    </row>
+    <row r="180" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B179" s="51" t="s">
+      <c r="B180" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C179" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="D179" s="52" t="s">
+      <c r="C180" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D180" s="52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="53" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="B180" s="54" t="s">
+      <c r="B181" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="C180" s="54" t="s">
+      <c r="C181" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="D180" s="55" t="s">
+      <c r="D181" s="55" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="20" t="s">
+    <row r="182" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B182" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C182" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D181" s="12" t="s">
+      <c r="D182" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="21" t="s">
+    <row r="183" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B183" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C183" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D183" s="42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="B182" s="13" t="s">
+      <c r="B184" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="C182" s="13" t="s">
+      <c r="C184" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="D182" s="14" t="s">
+      <c r="D184" s="42" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D185" s="14" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="B178:D178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3480,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
